--- a/5.3/RK/算order.xlsx
+++ b/5.3/RK/算order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MATLAB\5.3\RK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0BADB2-3A71-4664-98F0-B8C5D79E48A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D45AA9E-AF1A-4CD3-9259-06BBE3C17018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2520" windowWidth="21840" windowHeight="13140" xr2:uid="{E9D75F26-A4E4-484C-83C7-8B0472794C4F}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
